--- a/medicine/Enfance/Grâce_à_Dieu/Grâce_à_Dieu.xlsx
+++ b/medicine/Enfance/Grâce_à_Dieu/Grâce_à_Dieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à Dieu est un film dramatique franco-belge écrit et réalisé par François Ozon, sorti en 2018.
-Il s'agit d'une œuvre inspirée des affaires Bernard Preynat et Philippe Barbarin. Le film relate le combat judiciaire mené par des victimes d'abus sexuels sur mineurs dans l'Église catholique en France. Les noms des protagonistes de l'archidiocèse de Lyon ont été conservés mais ceux des victimes ont été changés[1].
+Il s'agit d'une œuvre inspirée des affaires Bernard Preynat et Philippe Barbarin. Le film relate le combat judiciaire mené par des victimes d'abus sexuels sur mineurs dans l'Église catholique en France. Les noms des protagonistes de l'archidiocèse de Lyon ont été conservés mais ceux des victimes ont été changés.
 Le film obtient le Grand prix du jury de la Berlinale en 2019.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Guérin habite la région lyonnaise. Cadre bancaire épanoui d'une quarantaine d'années, époux d'une femme aimante et père de cinq enfants, c'est un catholique pratiquant, tout comme sa famille. Un jour, après une conversation avec un camarade jadis scout comme lui, il se rappelle les abus sexuels dont, enfant, il a été victime de la part d'un prêtre catholique pédocriminel, le père Bernard Preynat. Les faits sont prescrits. Mais, assailli de souvenirs douloureux, Alexandre décide d'entreprendre une enquête. Il entre en contact avec la psychologue de l'archevêché, Régine Maire. Par son entremise, il obtient un rendez-vous avec le cardinal Philippe Barbarin, archevêque de Lyon. Il découvre alors que malgré l'alerte de plusieurs parents, l'Église a étouffé l'affaire. Régine Maire organise une brève confrontation entre Alexandre et le père Preynat, qui se conclut par une prière commune quasi suréaliste[non neutre]. Malgré les nombreux courriers électroniques d'Alexandre, les autorités ecclésiastiques tergiversent et se défaussent. Pire, lors d'une messe, Alexandre constate que le père Preynat, maintenu en fonctions, se trouve toujours au contact d'enfants.
 Alexandre ne parvient pas à trouver d'autres victimes qui accepteraient de témoigner. Il décide donc de déposer plainte seul. Le capitaine Courteau, qui a reçu sa déposition, recherche des victimes pour lesquelles les faits ne seraient pas prescrits. C'est ainsi qu'il rencontre François, aujourd'hui athée. Ce dernier décide de témoigner devant les médias et crée, à cette fin, l'association La Parole libérée. D'autres victimes le rejoignent, dont le chirurgien Gilles et Emmanuel, un être tourmenté qui garde de lourdes séquelles. Alexandre s'unit à eux. Ensemble, ils entament une action judiciaire.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Grâce à Dieu
@@ -568,7 +584,7 @@
 Genre : drame
 Durée : 137 minutes
 Dates de sortie :
-France : 10 décembre 2018 (avant-première mondiale à Angers)[2] ; 20 février 2019 (sortie nationale)
+France : 10 décembre 2018 (avant-première mondiale à Angers) ; 20 février 2019 (sortie nationale)
 Allemagne : 8 février 2019 (Berlinale)
 Suisse romande : 20 février 2019
 Belgique : 3 avril 2019
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Melvil Poupaud : Alexandre Guérin
@@ -641,7 +659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -659,12 +677,14 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le faux titre Alexandre, le tournage a secrètement lieu en Belgique et au Luxembourg pour les scènes d'intérieur dans les églises[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le faux titre Alexandre, le tournage a secrètement lieu en Belgique et au Luxembourg pour les scènes d'intérieur dans les églises,.
 Lieux de tournage à Lyon : pont Bonaparte, cathédrale et place Saint-Jean, quai Tilsitt, gare de Perrache, lycée Aux Lazaristes La Salle, jardin des Curiosités, théâtres romains, bibliothèque Saint-Jean, Fourvière, place et café Bellecour, place Antonin-Poncet, passerelle du Collège... 
-Le titre Grâce à Dieu a pour origine la phrase suivante prononcée par le cardinal Barbarin, en mars 2016, lors d'une conférence de presse, à propos des accusations portées contre le père Preynat : « La majorité des faits, grâce à Dieu, sont prescrits, mais certains peut-être pas[5],[6],[7] », le cardinal remerciant immédiatement après, un journaliste qui l'interroge sur « la violence » de son propos, et jugeant « maladroite » la formulation de celui-ci[8]. Selon certains de ses proches, il voulait dire que la majorité des faits reprochés au père Preynat étant prescrits, cela signifiait peut-être qu'heureusement aucun autre ne s'était produit depuis 1991[9].
-Initialement prévu en tant que documentaire, François Ozon opte pour le choix de la fiction. En 2023, Claire Duguet réalise un documentaire Il était une fois… « Grâce à Dieu » sous forme de court métrage, qui décrit le projet et le déroulement du tournage en collaboration avec une partie de l'équipe du film[10].
+Le titre Grâce à Dieu a pour origine la phrase suivante prononcée par le cardinal Barbarin, en mars 2016, lors d'une conférence de presse, à propos des accusations portées contre le père Preynat : « La majorité des faits, grâce à Dieu, sont prescrits, mais certains peut-être pas », le cardinal remerciant immédiatement après, un journaliste qui l'interroge sur « la violence » de son propos, et jugeant « maladroite » la formulation de celui-ci. Selon certains de ses proches, il voulait dire que la majorité des faits reprochés au père Preynat étant prescrits, cela signifiait peut-être qu'heureusement aucun autre ne s'était produit depuis 1991.
+Initialement prévu en tant que documentaire, François Ozon opte pour le choix de la fiction. En 2023, Claire Duguet réalise un documentaire Il était une fois… « Grâce à Dieu » sous forme de court métrage, qui décrit le projet et le déroulement du tournage en collaboration avec une partie de l'équipe du film.
 </t>
         </is>
       </c>
@@ -675,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,14 +715,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Festival et sorties
-Le film sort en avant-première mondiale le 10 décembre 2018 à Angers[2], même s'il est sélectionné et présenté le 8 février 2019 à la Berlinale en Allemagne, où il récolte le grand prix du jury[11].
+          <t>Festival et sorties</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort en avant-première mondiale le 10 décembre 2018 à Angers, même s'il est sélectionné et présenté le 8 février 2019 à la Berlinale en Allemagne, où il récolte le grand prix du jury.
 Il sort le 20 février 2019 dans toute la France et en Suisse romande, le 3 avril 2019 en Belgique, et le 5 avril 2019 au Québec.
-Accueil critique
-Le film reçoit de très bons retours, avec une note moyenne de 4,1/5 pour 34 titres de presse sur Allociné.
-Elle accorde la note de 5/5 au film, « Un film engagé et brillant »[12]. Le Figaro écrit que « François Ozon traite avec rigueur du sujet de la pédophilie dans l'Église »[13].
-Le théologien François Euvé compare le film Grâce à Dieu, qui « apporte des éléments qui aident à mieux ressentir les enjeux profonds de ce qui se passe », à l'essai Histoire d'un silence de Isabelle de Gaulmyn[14].
-Box-office</t>
+</t>
         </is>
       </c>
     </row>
@@ -712,7 +733,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
+          <t>Grâce_à_Dieu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,17 +748,95 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit de très bons retours, avec une note moyenne de 4,1/5 pour 34 titres de presse sur Allociné.
+Elle accorde la note de 5/5 au film, « Un film engagé et brillant ». Le Figaro écrit que « François Ozon traite avec rigueur du sujet de la pédophilie dans l'Église ».
+Le théologien François Euvé compare le film Grâce à Dieu, qui « apporte des éléments qui aident à mieux ressentir les enjeux profonds de ce qui se passe », à l'essai Histoire d'un silence de Isabelle de Gaulmyn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grâce_à_Dieu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Berlinale 2019 : Grand prix du jury[11]
-Prix des auditeurs 2019 du Masque et la Plume[16]
-César 2020 : Meilleur acteur dans un second rôle pour Swann Arlaud
-Nominations
-César 2020 :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Berlinale 2019 : Grand prix du jury
+Prix des auditeurs 2019 du Masque et la Plume
+César 2020 : Meilleur acteur dans un second rôle pour Swann Arlaud</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grâce_à_Dieu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>César 2020 :
 Meilleur film
 Meilleur réalisateur pour François Ozon
 Meilleur acteur pour Melvil Poupaud
@@ -754,40 +853,115 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gr%C3%A2ce_%C3%A0_Dieu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grâce_à_Dieu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actions en référé
-Avant la sortie en salle prévue le 20 février 2019, François Ozon est assigné en référé[17] deux fois car la défense veut obtenir le report de la sortie du film ou le retrait de la bande sonore des noms de Régine Maire et Bernard Preynat en raison de la protection de la vie privée pour la première et de la présomption d'innocence pour le second[18],[19],[20]. François Ozon se défend d'avoir établi un portrait à charge contre Régine Maire[21] et estime que son film « n’invente ni ne dit rien qui n’ait déjà été porté à la connaissance du public par la presse, les livres ou les documentaires consacrés déjà à cette affaire »[22]. Le 18 février 2019, le tribunal de grande instance de Paris se prononce pour la sortie du film à la date initialement prévue, en relevant que le procès de Bernard Preynat n’est ni fixé ni prévu à une date proche et qu'un report « pourrait à l’évidence conduire, compte tenu des divers recours possibles, à ne permettre la sortie du film que dans plusieurs années » dans des conditions qui « porteraient atteinte à la liberté d’expression et de création » et « créeraient des conditions d’exploitation économiques insupportables »[23]. La demande de Bernard Preynat de suspension de l’exploitation du film est rejetée par la cour d’appel de Paris en juin 2019[24]. Par ailleurs, le recours de Régine Maire, qui souhaitait que son nom soit retiré du film[25], est rejeté par le tribunal de grande instance de Lyon mardi 19 février 2019[26],[27]. En janvier 2021, le pourvoi en cassation de Bernard Preynat est rejeté, indiquant que le film s'inscrivait dans un « débat d'intérêt général »[28].
-Les Noces rouges, film de Claude Chabrol sorti en 1973, reste ainsi le dernier film français relatant une affaire judiciaire à avoir vu sa sortie reportée de 15 jours sur décision administrative et non judiciaire, car cette sortie devait tomber au beau milieu du procès aux assises[29].
-Sommet du Vatican
-La semaine de la sortie du film en France, le pape François a organisé un sommet de plusieurs jours consacré aux abus sexuels sur mineurs dans l'Église catholique[30].
-Autres
-Frédéric Pierrot retrouve le rôle de policier de la Brigade de protection des mineurs qu'il tenait en 2011 dans Polisse, où il était commandant de brigade.
-Le scénario du film, ainsi que de nombreux documents utilisés dans son élaboration, ont également été retranscrits dans un texte théâtral publié par Les Solitaires intempestifs sous le même titre[31].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Actions en référé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la sortie en salle prévue le 20 février 2019, François Ozon est assigné en référé deux fois car la défense veut obtenir le report de la sortie du film ou le retrait de la bande sonore des noms de Régine Maire et Bernard Preynat en raison de la protection de la vie privée pour la première et de la présomption d'innocence pour le second. François Ozon se défend d'avoir établi un portrait à charge contre Régine Maire et estime que son film « n’invente ni ne dit rien qui n’ait déjà été porté à la connaissance du public par la presse, les livres ou les documentaires consacrés déjà à cette affaire ». Le 18 février 2019, le tribunal de grande instance de Paris se prononce pour la sortie du film à la date initialement prévue, en relevant que le procès de Bernard Preynat n’est ni fixé ni prévu à une date proche et qu'un report « pourrait à l’évidence conduire, compte tenu des divers recours possibles, à ne permettre la sortie du film que dans plusieurs années » dans des conditions qui « porteraient atteinte à la liberté d’expression et de création » et « créeraient des conditions d’exploitation économiques insupportables ». La demande de Bernard Preynat de suspension de l’exploitation du film est rejetée par la cour d’appel de Paris en juin 2019. Par ailleurs, le recours de Régine Maire, qui souhaitait que son nom soit retiré du film, est rejeté par le tribunal de grande instance de Lyon mardi 19 février 2019,. En janvier 2021, le pourvoi en cassation de Bernard Preynat est rejeté, indiquant que le film s'inscrivait dans un « débat d'intérêt général ».
+Les Noces rouges, film de Claude Chabrol sorti en 1973, reste ainsi le dernier film français relatant une affaire judiciaire à avoir vu sa sortie reportée de 15 jours sur décision administrative et non judiciaire, car cette sortie devait tomber au beau milieu du procès aux assises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grâce_à_Dieu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sommet du Vatican</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La semaine de la sortie du film en France, le pape François a organisé un sommet de plusieurs jours consacré aux abus sexuels sur mineurs dans l'Église catholique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grâce_à_Dieu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A2ce_%C3%A0_Dieu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Pierrot retrouve le rôle de policier de la Brigade de protection des mineurs qu'il tenait en 2011 dans Polisse, où il était commandant de brigade.
+Le scénario du film, ainsi que de nombreux documents utilisés dans son élaboration, ont également été retranscrits dans un texte théâtral publié par Les Solitaires intempestifs sous le même titre.
 </t>
         </is>
       </c>
